--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_18-19.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_18-19.xlsx
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>EMBROSITOL 40.1MG 30 TAB</t>
   </si>
   <si>
     <t>EMPACOZA 10 MG 30 F.C. TABS</t>
@@ -1224,17 +1227,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1250,17 +1253,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1276,17 +1279,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1302,13 +1305,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1320,7 +1323,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1328,17 +1331,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1354,17 +1357,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>30.079999999999998</v>
+        <v>55</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1380,13 +1383,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>66</v>
+        <v>30.079999999999998</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1406,17 +1409,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1424,7 +1427,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1432,17 +1435,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1458,17 +1461,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1484,13 +1487,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1502,7 +1505,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1510,17 +1513,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1536,17 +1539,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1562,17 +1565,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1588,17 +1591,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1606,7 +1609,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1614,17 +1617,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1640,17 +1643,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1666,17 +1669,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1692,17 +1695,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1710,7 +1713,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1718,17 +1721,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1736,7 +1739,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1744,13 +1747,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1770,13 +1773,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>21.559999999999999</v>
+        <v>75</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1796,13 +1799,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>28</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1822,17 +1825,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1848,13 +1851,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1866,7 +1869,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1874,17 +1877,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1900,17 +1903,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1926,17 +1929,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1944,7 +1947,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1952,17 +1955,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1978,17 +1981,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2004,17 +2007,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2030,17 +2033,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2048,7 +2051,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2056,17 +2059,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2082,17 +2085,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2108,17 +2111,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2134,13 +2137,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2160,17 +2163,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2186,17 +2189,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2212,17 +2215,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>-96</v>
+        <v>531</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2238,17 +2241,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>25</v>
+        <v>-96</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2264,13 +2267,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2290,17 +2293,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>14.67</v>
+        <v>53</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2308,7 +2311,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2316,17 +2319,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>34</v>
+        <v>14.67</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2342,17 +2345,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2368,17 +2371,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2394,17 +2397,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2412,7 +2415,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2420,17 +2423,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2446,17 +2449,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2464,7 +2467,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2472,17 +2475,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2498,17 +2501,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>40</v>
+        <v>-4</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2524,13 +2527,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2550,51 +2553,77 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="K69" s="10">
-        <v>3602.21</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="11">
+    <row r="69" ht="24.75" customHeight="1">
+      <c r="A69" s="6">
+        <v>66</v>
+      </c>
+      <c t="s" r="B69" s="7">
         <v>95</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c t="s" r="F70" s="12">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c t="s" r="H69" s="8">
+        <v>9</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="9">
+        <v>20</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c t="s" r="N69" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" ht="26.25" customHeight="1">
+      <c r="K70" s="10">
+        <v>3822.21</v>
+      </c>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="11">
         <v>96</v>
       </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="13"/>
-      <c t="s" r="I70" s="14">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c t="s" r="F71" s="12">
         <v>97</v>
       </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="13"/>
+      <c t="s" r="I71" s="14">
+        <v>98</v>
+      </c>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="209">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2797,10 +2826,13 @@
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="I70:N70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I71:N71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
